--- a/DATA_goal/Junction_Flooding_437.xlsx
+++ b/DATA_goal/Junction_Flooding_437.xlsx
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -461,19 +461,19 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44781.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>7.84</v>
+        <v>78.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.37</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.1</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.7</v>
+        <v>27.04</v>
       </c>
       <c r="U3" s="4" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="V3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.25</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.52</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.45</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.56</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.84</v>
+        <v>38.43</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.35</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.47</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.52</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.25</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.02</v>
+        <v>20.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.15</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.85</v>
+        <v>78.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.68</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.15</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_437.xlsx
+++ b/DATA_goal/Junction_Flooding_437.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.75694444445</v>
+        <v>45118.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.43</v>
+        <v>6.427</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.56</v>
+        <v>14.561</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.53</v>
+        <v>11.533</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.49</v>
+        <v>4.486</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>15.002</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.211</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.58</v>
+        <v>5.579</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.239</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.75</v>
+        <v>6.747</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.62</v>
+        <v>5.615</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.139</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.88</v>
+        <v>4.876</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.271</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.41</v>
+        <v>78.413</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.37</v>
+        <v>15.366</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.184</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>9.362</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.29</v>
+        <v>6.286</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.958</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.031</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.9</v>
+        <v>6.902</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.61</v>
+        <v>7.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.257</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.3</v>
+        <v>12.304</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.8</v>
+        <v>3.802</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.76388888889</v>
+        <v>45118.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.43</v>
+        <v>3.872</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.99</v>
+        <v>3.077</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.78</v>
+        <v>8.933</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.37</v>
+        <v>6.961</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.54</v>
+        <v>2.671</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.1</v>
+        <v>13.472</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.2</v>
+        <v>4.945</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.97</v>
+        <v>2.731</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.15</v>
+        <v>3.318</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.49</v>
+        <v>3.75</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.69</v>
+        <v>4.024</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.66</v>
+        <v>1.013</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.23</v>
+        <v>3.36</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.81</v>
+        <v>4.394</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.07</v>
+        <v>3</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.091</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.415</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.04</v>
+        <v>44.184</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.48</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.06</v>
+        <v>3.103</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.89</v>
+        <v>5.932</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.67</v>
+        <v>3.765</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.631</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.32</v>
+        <v>7.023</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.62</v>
+        <v>2.537</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.23</v>
+        <v>3.058</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.9</v>
+        <v>3.861</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.08</v>
+        <v>4.402</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.25</v>
+        <v>12.217</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.56</v>
+        <v>2.154</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.25</v>
+        <v>3.549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.77083333334</v>
+        <v>45118.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.52</v>
+        <v>23.696</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.75</v>
+        <v>17.908</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.674</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.07</v>
+        <v>51.97</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.34</v>
+        <v>42.632</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.49</v>
+        <v>18.372</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.54</v>
+        <v>68.123</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.45</v>
+        <v>28.884</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.37</v>
+        <v>13.361</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.97</v>
+        <v>19.367</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.34</v>
+        <v>20.954</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.56</v>
+        <v>22.2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.92</v>
+        <v>5.996</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.99</v>
+        <v>18.776</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.96</v>
+        <v>26.549</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.65</v>
+        <v>15.727</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.226</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.91</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.43</v>
+        <v>278.803</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>52.464</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.76</v>
+        <v>17.332</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.26</v>
+        <v>35.162</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.24</v>
+        <v>18.937</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.628</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.82</v>
+        <v>34.364</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.33</v>
+        <v>15.205</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.62</v>
+        <v>13.923</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.19</v>
+        <v>16.494</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.8</v>
+        <v>22.317</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.35</v>
+        <v>61.702</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.82</v>
+        <v>10.135</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.24</v>
+        <v>21.461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.77777777778</v>
+        <v>45118.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.95</v>
+        <v>12.23</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.3</v>
+        <v>9.27</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.47</v>
+        <v>26.97</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.52</v>
+        <v>22.02</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.25</v>
+        <v>9.41</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.18</v>
+        <v>41.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.57</v>
+        <v>14.97</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.15</v>
+        <v>7.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.73</v>
+        <v>10.03</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.28</v>
+        <v>10.89</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.66</v>
+        <v>11.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.78</v>
+        <v>3.12</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.62</v>
+        <v>9.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.79</v>
+        <v>13.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.8</v>
+        <v>8.23</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.48</v>
+        <v>141.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.68</v>
+        <v>27.45</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.19</v>
+        <v>9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.3</v>
+        <v>18.3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.78</v>
+        <v>9.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.89</v>
+        <v>1.43</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.15</v>
+        <v>19.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.52</v>
+        <v>7.89</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.41</v>
+        <v>7.38</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.24</v>
+        <v>8.73</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.81</v>
+        <v>11.66</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.07</v>
+        <v>37.66</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.14</v>
+        <v>5.32</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.17</v>
+        <v>11.11</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_437.xlsx
+++ b/DATA_goal/Junction_Flooding_437.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="8" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,7 +652,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45118.50694444445</v>
+        <v>44781.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>6.427</v>
@@ -756,314 +756,418 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45118.51388888889</v>
+        <v>44781.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.872</v>
+        <v>2.431</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.077</v>
+        <v>1.994</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.933</v>
+        <v>5.782</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.961</v>
+        <v>4.369</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.671</v>
+        <v>1.538</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.472</v>
+        <v>10.105</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.945</v>
+        <v>3.2</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.731</v>
+        <v>1.972</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.318</v>
+        <v>2.147</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.75</v>
+        <v>2.492</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.024</v>
+        <v>2.693</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.013</v>
+        <v>0.656</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.36</v>
+        <v>2.233</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.394</v>
+        <v>2.814</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3</v>
+        <v>2.066</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.091</v>
+        <v>0.079</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.415</v>
+        <v>0.372</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>44.184</v>
+        <v>27.041</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>6.481</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.103</v>
+        <v>2.062</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.932</v>
+        <v>3.887</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.765</v>
+        <v>2.667</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.631</v>
+        <v>0.483</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.023</v>
+        <v>5.322</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.537</v>
+        <v>1.617</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.058</v>
+        <v>2.234</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.861</v>
+        <v>2.897</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.402</v>
+        <v>3.079</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.217</v>
+        <v>9.25</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.154</v>
+        <v>1.56</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.549</v>
+        <v>2.249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45118.52083333334</v>
+        <v>44781.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.696</v>
+        <v>3.518</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.908</v>
+        <v>2.749</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.674</v>
+        <v>0.023</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>51.97</v>
+        <v>8.069000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>42.632</v>
+        <v>6.339</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.372</v>
+        <v>2.492</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>68.123</v>
+        <v>11.543</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.884</v>
+        <v>4.452</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.361</v>
+        <v>2.374</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.367</v>
+        <v>2.972</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.954</v>
+        <v>3.341</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.2</v>
+        <v>3.565</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.996</v>
+        <v>0.923</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.776</v>
+        <v>2.985</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.549</v>
+        <v>3.957</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.727</v>
+        <v>2.649</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.226</v>
+        <v>0.056</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.315</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>278.803</v>
+        <v>38.425</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>52.464</v>
+        <v>8.377000000000001</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.332</v>
+        <v>2.756</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.162</v>
+        <v>5.264</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.937</v>
+        <v>3.235</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.628</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.364</v>
+        <v>5.821</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.205</v>
+        <v>2.331</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.923</v>
+        <v>2.62</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.494</v>
+        <v>3.195</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.317</v>
+        <v>3.798</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>61.702</v>
+        <v>10.346</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>10.135</v>
+        <v>1.822</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.461</v>
+        <v>3.238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45118.52777777778</v>
+        <v>44781.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.23</v>
+        <v>6.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.27</v>
+        <v>5.298</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.144</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.97</v>
+        <v>15.471</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.02</v>
+        <v>12.518</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.41</v>
+        <v>5.252</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.32</v>
+        <v>20.181</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.97</v>
+        <v>8.571</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.06</v>
+        <v>4.15</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.03</v>
+        <v>5.733</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.89</v>
+        <v>6.281</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.55</v>
+        <v>6.664</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.12</v>
+        <v>1.783</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.75</v>
+        <v>5.618</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.76</v>
+        <v>7.793</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.23</v>
+        <v>4.8</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.074</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.367</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>141.48</v>
+        <v>78.479</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>27.45</v>
+        <v>15.676</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9</v>
+        <v>5.186</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.3</v>
+        <v>10.305</v>
       </c>
       <c r="X5" s="4" t="n">
+        <v>5.782</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>10.146</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>4.521</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>4.411</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>5.244</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>6.809</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>18.074</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>3.144</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>6.336</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.78471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T6" s="4" t="n">
         <v>9.92</v>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>37.66</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>11.11</v>
+      <c r="U6" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_437.xlsx
+++ b/DATA_goal/Junction_Flooding_437.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,7 +652,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.75694444445</v>
+        <v>45118.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>6.427</v>
@@ -756,418 +756,314 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.76388888889</v>
+        <v>45118.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.431</v>
+        <v>3.872</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.994</v>
+        <v>3.077</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.782</v>
+        <v>8.933</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.369</v>
+        <v>6.961</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.538</v>
+        <v>2.671</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.105</v>
+        <v>13.472</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.2</v>
+        <v>4.945</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.972</v>
+        <v>2.731</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.147</v>
+        <v>3.318</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.492</v>
+        <v>3.75</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.693</v>
+        <v>4.024</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.656</v>
+        <v>1.013</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.233</v>
+        <v>3.36</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.814</v>
+        <v>4.394</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.066</v>
+        <v>3</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.079</v>
+        <v>0.091</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.372</v>
+        <v>0.415</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.041</v>
+        <v>44.184</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.481</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.062</v>
+        <v>3.103</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.887</v>
+        <v>5.932</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.667</v>
+        <v>3.765</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.483</v>
+        <v>0.631</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.322</v>
+        <v>7.023</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.617</v>
+        <v>2.537</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.234</v>
+        <v>3.058</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.897</v>
+        <v>3.861</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.079</v>
+        <v>4.402</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.25</v>
+        <v>12.217</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.56</v>
+        <v>2.154</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.249</v>
+        <v>3.549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.77083333334</v>
+        <v>45118.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.518</v>
+        <v>23.696</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.749</v>
+        <v>17.908</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.023</v>
+        <v>0.674</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.069000000000001</v>
+        <v>51.97</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.339</v>
+        <v>42.632</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.492</v>
+        <v>18.372</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.543</v>
+        <v>68.123</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.452</v>
+        <v>28.884</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.374</v>
+        <v>13.361</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.972</v>
+        <v>19.367</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.341</v>
+        <v>20.954</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.565</v>
+        <v>22.2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.923</v>
+        <v>5.996</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.985</v>
+        <v>18.776</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.957</v>
+        <v>26.549</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.649</v>
+        <v>15.727</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.056</v>
+        <v>0.226</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.315</v>
+        <v>0.91</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.425</v>
+        <v>278.803</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.377000000000001</v>
+        <v>52.464</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.756</v>
+        <v>17.332</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.264</v>
+        <v>35.162</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.235</v>
+        <v>18.937</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.5580000000000001</v>
+        <v>2.628</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.821</v>
+        <v>34.364</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.331</v>
+        <v>15.205</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.62</v>
+        <v>13.923</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.195</v>
+        <v>16.494</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.798</v>
+        <v>22.317</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.346</v>
+        <v>61.702</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.822</v>
+        <v>10.135</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.238</v>
+        <v>21.461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.77777777778</v>
+        <v>45118.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.95</v>
+        <v>12.23</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.298</v>
+        <v>9.27</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.144</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.471</v>
+        <v>26.97</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.518</v>
+        <v>22.02</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.252</v>
+        <v>9.41</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.181</v>
+        <v>41.32</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.571</v>
+        <v>14.97</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.15</v>
+        <v>7.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.733</v>
+        <v>10.03</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.281</v>
+        <v>10.89</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.664</v>
+        <v>11.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.783</v>
+        <v>3.12</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.618</v>
+        <v>9.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.793</v>
+        <v>13.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.8</v>
+        <v>8.23</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.074</v>
+        <v>0.12</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.367</v>
+        <v>0.52</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.479</v>
+        <v>141.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.676</v>
+        <v>27.45</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.186</v>
+        <v>9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.305</v>
+        <v>18.3</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.782</v>
+        <v>9.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.885</v>
+        <v>1.43</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.146</v>
+        <v>19.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.521</v>
+        <v>7.89</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.411</v>
+        <v>7.38</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.244</v>
+        <v>8.73</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.809</v>
+        <v>11.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.074</v>
+        <v>37.66</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.144</v>
+        <v>5.32</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.336</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.17</v>
+        <v>11.11</v>
       </c>
     </row>
   </sheetData>
